--- a/ValueSet-ExampleConsentStateVS.xlsx
+++ b/ValueSet-ExampleConsentStateVS.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-25T20:33:47+00:00</t>
+    <t>2023-07-25T20:35:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
